--- a/fractals_3d/data/data_10.xlsx
+++ b/fractals_3d/data/data_10.xlsx
@@ -63,10 +63,10 @@
     <t>cyan</t>
   </si>
   <si>
-    <t>"A": "A-^A"</t>
-  </si>
-  <si>
     <t>black</t>
+  </si>
+  <si>
+    <t>A: A-^A</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>

--- a/fractals_3d/data/data_10.xlsx
+++ b/fractals_3d/data/data_10.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>A: A-^A</t>
+  </si>
+  <si>
+    <t>Constants</t>
   </si>
 </sst>
 </file>
@@ -894,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,7 +908,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,8 +945,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
